--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zer0_\Documents\anumber\04_開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BC56B5-965A-4360-8B1F-763D5374FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B0865-6B32-4190-B8F6-81E36707ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,17 +34,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">    [9, 4, 0, 0, 0, 0, 0, 0, 7],
-    [0, 0, 8, 0, 0, 5, 3, 0, 0],
-    [0, 0, 0, 0, 0, 6, 0, 8, 0],
-    [6, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 1, 5, 0, 0, 0, 7, 6, 0],
-    [7, 0, 0, 0, 0, 0, 9, 0, 0],
-    [0, 0, 0, 0, 0, 7, 0, 0, 0],
-    [0, 0, 0, 9, 8, 0, 0, 7, 2],
-    [2, 0, 0, 6, 0, 0, 5, 4, 0]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>9 4 0 0 0 0 0 0 7
+0 0 8 0 0 5 3 0 0
+0 0 0 0 0 6 0 8 0
+6 0 0 0 0 0 0 0 0
+0 1 5 0 0 0 7 6 0
+7 0 0 0 0 0 9 0 0
+0 0 0 0 0 7 0 0 0
+0 0 0 9 8 0 0 7 2
+2 0 0 6 0 0 5 4 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 1 1 1 0 0 0
+1 1 1 1 1 -1 1 1 1
+0 0 0 1 1 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9 4 2 1 5 8 6 3 7
+1 7 8 2 9 5 3 6 4
+5 3 6 4 7 6 2 8 9
+6 5 9 7 3 2 8 1 4
+4 1 5 8 2 9 7 6 3
+7 8 3 5 4 1 9 2 6
+8 6 1 3 7 7 4 9 5
+3 2 4 9 8 6 1 7 2
+2 9 7 6 1 4 5 4 8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>答え</t>
+    <rPh sb="0" eb="1">
+      <t>コタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -54,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +114,51 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,18 +166,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,20 +523,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D1F641-C532-4BFF-B954-B26B3CCFBE8B}">
-  <dimension ref="B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="162" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B0865-6B32-4190-B8F6-81E36707ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0EECE9-ABEE-49C9-BF16-74B576558E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
@@ -34,19 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>9 4 0 0 0 0 0 0 7
-0 0 8 0 0 5 3 0 0
-0 0 0 0 0 6 0 8 0
-6 0 0 0 0 0 0 0 0
-0 1 5 0 0 0 7 6 0
-7 0 0 0 0 0 9 0 0
-0 0 0 0 0 7 0 0 0
-0 0 0 9 8 0 0 7 2
-2 0 0 6 0 0 5 4 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -75,22 +63,90 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9 4 2 1 5 8 6 3 7
-1 7 8 2 9 5 3 6 4
-5 3 6 4 7 6 2 8 9
-6 5 9 7 3 2 8 1 4
-4 1 5 8 2 9 7 6 3
-7 8 3 5 4 1 9 2 6
-8 6 1 3 7 7 4 9 5
-3 2 4 9 8 6 1 7 2
-2 9 7 6 1 4 5 4 8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>答え</t>
     <rPh sb="0" eb="1">
       <t>コタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定マス
+X座標(→)</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定マス
+Y座標(↓)</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9 4 0 0 0 0 0 0 7 
+1 0 8 0 0 5 3 0 0 
+0 9 0 0 0 6 0 8 0 
+6 0 6 0 0 0 0 0 0 
+0 1 5 2 0 0 7 6 0 
+7 0 0 0 8 0 9 0 0 
+0 0 0 0 0 4 0 0 0 
+0 0 0 9 8 0 0 7 2 
+3 0 0 6 0 0 5 4 0 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9 4 2 1 3 8 6 5 7 
+1 6 8 7 9 5 3 2 4 
+5 9 7 4 3 6 2 8 1 
+6 2 6 3 3 7 4 1 5 
+8 1 5 2 4 9 7 6 3 
+7 4 3 4 8 1 9 2 5 
+2 7 9 5 5 4 8 3 6 
+4 5 1 9 8 3 1 7 2 
+3 7 9 6 1 2 5 4 8 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0 4 0 0 0 0 0 0 7 
+1 0 8 0 0 5 3 0 0 
+0 9 0 0 0 6 0 8 0 
+6 0 6 0 0 0 0 0 0 
+0 1 5 2 0 0 7 6 0 
+7 0 0 0 8 0 9 0 0 
+0 0 0 0 0 4 0 0 0 
+0 0 0 9 8 0 0 7 2 
+3 0 0 6 0 0 5 4 0 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全解答</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 1 1 -1 1 1 1 1 1
+0 0 0 1 1 1 0 0 0
+0 0 0 1 1 1 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -98,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +186,22 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -182,12 +252,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,12 +279,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{F69BD3DB-4DE5-40FB-819C-95090A37937C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,47 +606,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D1F641-C532-4BFF-B954-B26B3CCFBE8B}">
-  <dimension ref="A1:D2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="4"/>
+    <col min="2" max="2" width="17.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="4"/>
+    <col min="7" max="7" width="16.796875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="118.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0EECE9-ABEE-49C9-BF16-74B576558E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EFD500-3778-418B-9B2E-1860C207505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="elementary" sheetId="1" r:id="rId1"/>
@@ -34,21 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 1 1 1 0 0 0
-1 1 1 1 1 -1 1 1 1
-0 0 0 1 1 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -89,18 +77,6 @@
     <rPh sb="6" eb="8">
       <t>ザヒョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">9 4 0 0 0 0 0 0 7 
-1 0 8 0 0 5 3 0 0 
-0 9 0 0 0 6 0 8 0 
-6 0 6 0 0 0 0 0 0 
-0 1 5 2 0 0 7 6 0 
-7 0 0 0 8 0 9 0 0 
-0 0 0 0 0 4 0 0 0 
-0 0 0 9 8 0 0 7 2 
-3 0 0 6 0 0 5 4 0 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -147,6 +123,42 @@
 0 0 0 1 0 0 0 0 0
 0 0 0 1 0 0 0 0 0
 0 0 0 1 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 4 0 0 0 0 0 
+0 5 0 7 0 0 0 0 9 
+0 0 0 9 0 8 6 0 1 
+9 6 4 0 0 0 0 8 0 
+0 0 7 0 0 0 9 0 0 
+0 0 0 0 0 0 0 0 0 
+3 1 0 0 0 2 0 0 0 
+0 0 0 8 0 0 0 0 7 
+2 0 0 0 0 0 1 0 3 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+1 1 1 -1 1 1 1 1 1
+0 0 0 1 1 1 0 0 0
+0 0 0 1 1 1 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6 2 9 4 1 5 7 3 8 
+8 5 1 7 6 3 2 4 9 
+7 4 3 9 2 8 6 5 1 
+9 6 4 1 5 7 3 8 2 
+5 3 7 2 8 4 9 1 6 
+1 8 2 3 9 6 4 7 5 
+3 1 5 6 7 2 8 9 4 
+4 9 6 8 3 1 5 2 7 
+2 7 8 5 4 9 1 6 3 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -607,9 +619,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D1F641-C532-4BFF-B954-B26B3CCFBE8B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -626,22 +640,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -649,30 +663,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8">
-        <v>9</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -681,13 +695,36 @@
         <v>3</v>
       </c>
       <c r="E3" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EFD500-3778-418B-9B2E-1860C207505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15347BBF-121B-4B57-9692-84595FA0DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="elementary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -159,6 +159,30 @@
 3 1 5 6 7 2 8 9 4 
 4 9 6 8 3 1 5 2 7 
 2 7 8 5 4 9 1 6 3 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 8 4 0 0 0 7 0 0
+0 0 0 0 0 3 0 9 0
+0 0 6 7 0 0 0 0 0
+0 0 0 0 0 0 0 6 0
+0 0 0 4 9 0 0 0 0
+0 2 8 0 1 0 3 0 0
+6 0 0 0 4 0 0 0 1
+0 0 0 2 0 5 0 0 9
+0 4 0 0 0 0 8 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 1 1 1 0 0 0
+0 0 0 1 1 1 0 0 0
+1 1 1 1 1 -1 1 1 1
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,10 +643,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D1F641-C532-4BFF-B954-B26B3CCFBE8B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -663,67 +687,86 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
       <c r="E4" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15347BBF-121B-4B57-9692-84595FA0DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8278DF-5D91-4067-909E-5DD92E6FD8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8278DF-5D91-4067-909E-5DD92E6FD8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925AA0E8-B583-4B90-A633-727F3D50E072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
-    <sheet name="elementary" sheetId="1" r:id="rId1"/>
+    <sheet name="初級" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -183,6 +183,18 @@
 0 0 0 0 0 1 0 0 0
 0 0 0 0 0 1 0 0 0
 0 0 0 0 0 1 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 8 4 1 6 9 7 5 3 
+1 5 7 8 2 3 4 9 6 
+3 9 6 7 5 4 2 1 8 
+4 1 5 3 8 7 9 6 2 
+7 6 3 4 9 2 1 8 5 
+9 2 8 5 1 6 3 7 4 
+6 7 2 9 4 8 5 3 1 
+8 3 1 2 7 5 6 4 9 
+5 4 9 6 3 1 8 2 7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -646,7 +658,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -701,7 +713,9 @@
       <c r="F2" s="8">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
@@ -722,7 +736,9 @@
       <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925AA0E8-B583-4B90-A633-727F3D50E072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91578C-4FE0-49D0-B4ED-18ACF62955F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -80,30 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">9 4 2 1 3 8 6 5 7 
-1 6 8 7 9 5 3 2 4 
-5 9 7 4 3 6 2 8 1 
-6 2 6 3 3 7 4 1 5 
-8 1 5 2 4 9 7 6 3 
-7 4 3 4 8 1 9 2 5 
-2 7 9 5 5 4 8 3 6 
-4 5 1 9 8 3 1 7 2 
-3 7 9 6 1 2 5 4 8 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0 4 0 0 0 0 0 0 7 
-1 0 8 0 0 5 3 0 0 
-0 9 0 0 0 6 0 8 0 
-6 0 6 0 0 0 0 0 0 
-0 1 5 2 0 0 7 6 0 
-7 0 0 0 8 0 9 0 0 
-0 0 0 0 0 4 0 0 0 
-0 0 0 9 8 0 0 7 2 
-3 0 0 6 0 0 5 4 0 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全解答</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
@@ -111,54 +87,6 @@
     <rPh sb="1" eb="3">
       <t>カイトウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 1 1 -1 1 1 1 1 1
-0 0 0 1 1 1 0 0 0
-0 0 0 1 1 1 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0 0 0 4 0 0 0 0 0 
-0 5 0 7 0 0 0 0 9 
-0 0 0 9 0 8 6 0 1 
-9 6 4 0 0 0 0 8 0 
-0 0 7 0 0 0 9 0 0 
-0 0 0 0 0 0 0 0 0 
-3 1 0 0 0 2 0 0 0 
-0 0 0 8 0 0 0 0 7 
-2 0 0 0 0 0 1 0 3 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-1 1 1 -1 1 1 1 1 1
-0 0 0 1 1 1 0 0 0
-0 0 0 1 1 1 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6 2 9 4 1 5 7 3 8 
-8 5 1 7 6 3 2 4 9 
-7 4 3 9 2 8 6 5 1 
-9 6 4 1 5 7 3 8 2 
-5 3 7 2 8 4 9 1 6 
-1 8 2 3 9 6 4 7 5 
-3 1 5 6 7 2 8 9 4 
-4 9 6 8 3 1 5 2 7 
-2 7 8 5 4 9 1 6 3 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -195,6 +123,42 @@
 6 7 2 9 4 8 5 3 1 
 8 3 1 2 7 5 6 4 9 
 5 4 9 6 3 1 8 2 7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 9 0 0 0 7 0 
+6 2 7 8 5 1 3 4 9 
+0 9 8 0 7 3 0 5 0 
+0 0 9 5 6 8 4 2 7 
+7 8 6 0 0 2 0 1 0 
+0 5 0 0 0 7 0 8 0 
+0 0 1 7 0 0 0 0 0 
+9 7 0 0 8 5 1 0 2 
+0 0 0 0 0 0 7 0 0 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 1 1 0 0 0
+1 1 1 -1 1 1 1 1 1
+0 0 0 1 1 1 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5 4 3 9 2 6 8 7 1 
+6 2 7 8 5 1 3 4 9 
+1 9 8 4 7 3 2 5 6 
+3 1 9 5 6 8 4 2 7 
+7 8 6 3 4 2 9 1 5 
+4 5 2 1 9 7 6 8 3 
+2 6 1 7 3 4 5 9 8 
+9 7 4 6 8 5 1 3 2 
+8 3 5 2 1 9 7 6 4 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -658,7 +622,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -691,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -699,45 +663,45 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -745,22 +709,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
@@ -771,19 +735,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91578C-4FE0-49D0-B4ED-18ACF62955F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B38D7EF-B925-43FF-85F1-D23E891A4278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B38D7EF-B925-43FF-85F1-D23E891A4278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E9396D-2881-4181-8514-6B185384DB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
@@ -126,39 +126,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">0 0 0 9 0 0 0 7 0 
-6 2 7 8 5 1 3 4 9 
-0 9 8 0 7 3 0 5 0 
-0 0 9 5 6 8 4 2 7 
-7 8 6 0 0 2 0 1 0 
-0 5 0 0 0 7 0 8 0 
-0 0 1 7 0 0 0 0 0 
-9 7 0 0 8 5 1 0 2 
-0 0 0 0 0 0 7 0 0 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 1 1 0 0 0
-1 1 1 -1 1 1 1 1 1
-0 0 0 1 1 1 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0
-0 0 0 1 0 0 0 0 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5 4 3 9 2 6 8 7 1 
-6 2 7 8 5 1 3 4 9 
-1 9 8 4 7 3 2 5 6 
-3 1 9 5 6 8 4 2 7 
-7 8 6 3 4 2 9 1 5 
-4 5 2 1 9 7 6 8 3 
-2 6 1 7 3 4 5 9 8 
-9 7 4 6 8 5 1 3 2 
-8 3 5 2 1 9 7 6 4 </t>
+    <t>0 6 0 2 0 0 0 0 0 
+0 0 1 9 0 0 0 7 0 
+2 8 0 0 0 0 0 4 9 
+0 0 0 0 0 2 1 5 0 
+0 0 8 0 0 0 3 0 0 
+0 0 3 1 0 0 0 8 4 
+0 0 0 0 0 0 0 0 0 
+0 1 0 0 0 0 0 6 0 
+7 0 4 0 6 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0
+1 1 1 0 0 0 0 0 0
+-1 1 1 1 1 1 1 1 1
+1 1 1 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9 6 7 2 4 8 5 1 3 
+3 4 1 9 5 6 2 7 8 
+2 8 5 3 1 7 6 4 9 
+4 7 9 8 3 2 1 5 6 
+1 5 8 6 7 4 3 9 2 
+6 2 3 1 9 5 7 8 4 
+8 9 6 7 2 1 4 3 5 
+5 1 2 4 8 3 9 6 7 
+7 3 4 5 6 9 8 2 1 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -622,7 +622,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -669,13 +669,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8">
         <v>4</v>
       </c>
       <c r="F2" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -692,13 +692,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="8">
         <v>4</v>
       </c>
       <c r="F3" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E9396D-2881-4181-8514-6B185384DB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223A111-205C-4172-A9BB-1A5939831F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
+    <sheet name="中級" sheetId="3" r:id="rId2"/>
+    <sheet name="上級" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -87,42 +89,6 @@
     <rPh sb="1" eb="3">
       <t>カイトウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2 8 4 0 0 0 7 0 0
-0 0 0 0 0 3 0 9 0
-0 0 6 7 0 0 0 0 0
-0 0 0 0 0 0 0 6 0
-0 0 0 4 9 0 0 0 0
-0 2 8 0 1 0 3 0 0
-6 0 0 0 4 0 0 0 1
-0 0 0 2 0 5 0 0 9
-0 4 0 0 0 0 8 0 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0 0 0 1 1 1 0 0 0
-0 0 0 1 1 1 0 0 0
-1 1 1 1 1 -1 1 1 1
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2 8 4 1 6 9 7 5 3 
-1 5 7 8 2 3 4 9 6 
-3 9 6 7 5 4 2 1 8 
-4 1 5 3 8 7 9 6 2 
-7 6 3 4 9 2 1 8 5 
-9 2 8 5 1 6 3 7 4 
-6 7 2 9 4 8 5 3 1 
-8 3 1 2 7 5 6 4 9 
-5 4 9 6 3 1 8 2 7</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -159,6 +125,222 @@
 8 9 6 7 2 1 4 3 5 
 5 1 2 4 8 3 9 6 7 
 7 3 4 5 6 9 8 2 1 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6 0 9 0 0 0 2 0 0 
+5 0 1 7 0 0 0 8 0 
+8 0 7 0 5 0 6 0 3 
+0 1 0 9 0 0 7 0 0 
+0 0 0 0 0 7 0 3 0 
+7 0 0 8 2 0 0 0 0 
+0 0 0 1 0 0 0 0 0 
+0 0 0 6 0 0 4 0 9 
+0 7 0 0 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 1 1 1
+1 1 1 1 1 1 -1 1 1
+0 0 0 0 0 0 1 1 1
+0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6 4 9 3 8 1 2 5 7 
+5 3 1 7 6 2 9 8 4 
+8 2 7 4 5 9 6 1 3 
+2 1 8 9 3 6 7 4 5 
+4 9 6 5 1 7 8 3 2 
+7 5 3 8 2 4 1 9 6 
+9 6 2 1 4 5 3 7 8 
+1 8 5 6 7 3 4 2 9 
+3 7 4 2 9 8 5 6 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 3 0 0 0 7 0 0 0 
+0 0 9 0 0 0 0 5 0 
+0 0 0 5 0 0 0 0 0 
+0 0 0 0 0 0 0 3 2 
+0 1 0 0 0 0 7 0 0 
+0 0 3 2 4 0 0 9 6 
+9 0 0 0 0 1 0 0 0 
+0 0 5 0 0 0 0 2 9 
+0 7 0 0 8 0 0 6 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 1 1 1
+0 0 0 0 0 0 1 1 1
+1 1 1 1 1 1 1 1 -1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 3 1 6 2 7 9 8 4 
+6 4 9 8 1 3 2 5 7 
+8 2 7 5 9 4 6 1 3 
+4 9 6 1 7 5 8 3 2 
+2 1 8 3 6 9 7 4 5 
+7 5 3 2 4 8 1 9 6 
+9 6 2 4 5 1 3 7 8 
+1 8 5 7 3 6 4 2 9 
+3 7 4 9 8 2 5 6 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 0 0 8 0 0 0 0 6 
+0 0 0 0 0 0 7 0 0 
+0 0 2 5 3 1 0 0 9 
+0 1 5 0 6 0 0 0 0 
+7 0 0 1 0 5 0 0 0 
+0 2 8 0 0 0 1 0 0 
+0 0 0 4 9 0 2 0 0 
+2 0 0 0 0 0 0 0 0 
+3 9 6 0 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0
+1 -1 1 1 1 1 1 1 1
+1 1 1 0 0 0 0 0 0
+1 1 1 0 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 4 9 8 2 7 3 1 6 
+8 3 1 6 4 9 7 5 2 
+6 7 2 5 3 1 4 8 9 
+4 1 5 9 6 2 8 7 3 
+7 6 3 1 8 5 9 2 4 
+9 2 8 3 7 4 1 6 5 
+1 5 7 4 9 6 2 3 8 
+2 8 4 7 5 3 6 9 1 
+3 9 6 2 1 8 5 4 7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 4 2 0 5 0 0 
+6 0 0 9 1 0 3 0 0 
+0 0 0 0 8 3 1 0 0 
+0 0 0 0 0 0 7 3 4 
+0 0 9 1 0 2 0 0 0 
+0 0 0 0 0 0 0 0 0 
+0 4 0 0 0 1 9 0 6 
+7 2 0 0 0 0 0 0 0 
+8 9 0 0 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 0 1 0 0 0 0
+0 0 0 0 1 0 0 0 0
+0 0 0 0 1 0 0 0 0
+0 0 0 0 1 0 0 0 0
+0 0 0 0 1 0 0 0 0
+0 0 0 0 1 0 0 0 0
+1 1 1 1 -1 1 1 1 1
+0 0 0 1 1 1 0 0 0
+0 0 0 1 1 1 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9 1 3 4 2 7 5 6 8 
+6 8 7 9 1 5 3 4 2 
+2 5 4 6 8 3 1 9 7 
+1 6 2 5 9 8 7 3 4 
+4 7 9 1 3 2 6 8 5 
+5 3 8 7 6 4 2 1 9 
+3 4 5 8 7 1 9 2 6 
+7 2 6 3 4 9 8 5 1 
+8 9 1 2 5 6 4 7 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 1 6 5 9 4 2 8 7 
+7 5 2 8 1 3 4 6 9 
+4 8 9 6 2 7 3 5 1 
+2 3 8 1 7 5 9 4 6 
+5 4 7 3 6 9 1 2 8 
+6 9 1 2 4 8 5 7 3 
+8 7 3 4 5 1 6 9 2 
+9 2 4 7 3 6 8 1 5 
+1 6 5 9 8 2 7 3 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8 0 0 4 0 0 0 0 0 
+0 0 0 2 0 8 0 0 6 
+0 0 0 7 0 0 0 0 0 
+0 5 0 6 0 9 3 8 1 
+0 1 0 0 0 0 4 0 0 
+9 0 0 0 0 1 0 0 2 
+0 6 1 3 0 0 2 0 0 
+4 2 9 1 0 0 0 7 3 
+0 0 0 9 0 0 1 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 1 1 1
+0 0 0 0 0 0 1 1 1
+1 1 1 1 1 1 1 1 -1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1
+0 0 0 0 0 0 0 0 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8 3 2 4 9 6 5 1 7 
+1 7 4 2 5 8 9 3 6 
+6 9 5 7 1 3 8 2 4 
+2 5 7 6 4 9 3 8 1 
+3 1 8 5 2 7 4 6 9 
+9 4 6 8 3 1 7 5 2 
+5 6 1 3 7 4 2 9 8 
+4 2 9 1 8 5 6 7 3 
+7 8 3 9 6 2 1 4 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-1 1 1 1 1 1 1 1 1
+1 1 1 0 0 0 0 0 0
+1 1 1 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0
+1 0 0 0 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 1 0 0 0 4 2 8 0 
+0 0 2 0 0 3 4 0 0 
+0 0 9 6 2 7 3 5 0 
+0 3 0 0 0 5 9 4 0 
+5 0 7 0 0 9 0 0 0 
+6 9 0 0 0 8 5 0 3 
+0 0 0 0 5 0 6 0 0 
+0 0 0 7 0 6 8 0 5 
+0 0 0 9 0 0 0 0 4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -272,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +483,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -621,8 +806,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -669,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -692,13 +877,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -715,13 +900,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
@@ -732,22 +917,346 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F176B317-0979-4E1D-B3AE-6CF16DA7865B}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="4"/>
+    <col min="7" max="7" width="16.796875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
         <v>7</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="127.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="127.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F5A96-CD68-4F38-8D35-D4A4BA19D7A6}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="4"/>
+    <col min="7" max="7" width="16.796875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
         <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223A111-205C-4172-A9BB-1A5939831F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4D105-F381-4D2E-A727-E19ACF5849BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -341,6 +341,30 @@
 0 0 0 0 5 0 6 0 0 
 0 0 0 7 0 6 8 0 5 
 0 0 0 9 0 0 0 0 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 8 4 0 0 0 7 0 0 
+0 0 0 0 0 3 0 9 0 
+0 0 6 7 0 0 0 0 0 
+0 0 0 0 0 0 0 6 0 
+0 0 0 4 9 0 0 0 0 
+0 2 8 0 1 0 3 0 0 
+6 0 0 0 4 0 0 0 1 
+0 0 0 2 0 5 0 0 9 
+0 4 0 0 0 0 8 0 0 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 1 1 1 0 0 0
+0 0 0 1 1 1 0 0 0
+1 1 1 1 1 -1 1 1 1
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -806,8 +830,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -848,50 +873,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -914,7 +939,7 @@
     </row>
     <row r="5" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -945,8 +970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F176B317-0979-4E1D-B3AE-6CF16DA7865B}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1108,7 +1134,8 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4D105-F381-4D2E-A727-E19ACF5849BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF65391-BBC9-462D-B174-515D6BF501DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -365,6 +365,174 @@
 0 0 0 0 0 1 0 0 0
 0 0 0 0 0 1 0 0 0
 0 0 0 0 0 1 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 6 5 0 7 0 1 3 0 
+3 0 0 1 6 0 5 0 0 
+0 0 9 0 0 8 7 6 4 
+0 0 0 6 0 7 9 1 5 
+6 5 0 9 1 3 0 2 7 
+9 0 0 2 0 0 6 0 3 
+0 9 6 0 0 5 0 7 0 
+5 8 0 7 0 6 3 0 0 
+7 0 0 8 9 1 2 5 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0
+0 0 0 0 0 0 1 0 0
+1 1 1 1 1 1 -1 1 1
+0 0 0 0 0 0 1 1 1
+0 0 0 0 0 0 1 1 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8 6 5 4 7 9 1 3 2 
+3 7 4 1 6 2 5 9 8 
+1 2 9 5 3 8 7 6 4 
+4 3 2 6 8 7 9 1 5 
+6 5 8 9 1 3 4 2 7 
+9 1 7 2 5 4 6 8 3 
+2 9 6 3 4 5 8 7 1 
+5 8 1 7 2 6 3 4 9 
+7 4 3 8 9 1 2 5 6 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0 4 0 7 0 1 9 2 6 
+0 9 0 5 0 6 4 7 3 
+0 2 0 4 3 9 8 5 1 
+9 1 0 2 4 0 0 6 8 
+6 8 0 1 9 5 0 4 0 
+2 0 4 8 6 0 1 9 0 
+0 0 0 0 0 0 0 1 9 
+0 0 2 0 5 8 7 3 4 
+0 7 9 3 0 0 6 8 0 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 1 1 1 0 0 0
+0 0 0 1 1 1 0 0 0
+1 1 1 1 1 -1 1 1 1
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 4 5 7 8 1 9 2 6 
+8 9 1 5 2 6 4 7 3 
+7 2 6 4 3 9 8 5 1 
+9 1 3 2 4 7 5 6 8 
+6 8 7 1 9 5 3 4 2 
+2 5 4 8 6 3 1 9 7 
+5 3 8 6 7 4 2 1 9 
+1 6 2 9 5 8 7 3 4 
+4 7 9 3 1 2 6 8 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 0 0 0 0 6 0 3 0 
+1 0 6 0 3 7 5 0 0 
+0 0 3 9 0 0 7 6 0 
+9 3 1 8 6 5 4 2 7 
+0 0 0 0 9 0 6 0 3 
+6 0 0 0 0 3 9 0 5 
+0 1 9 3 0 4 0 5 6 
+3 5 4 6 0 9 0 7 0 
+0 6 2 0 0 0 3 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 1 1 0 0 0 0 0 0
+1 1 1 0 0 0 0 0 0
+1 -1 1 1 1 1 1 1 1
+0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0
+0 1 0 0 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 9 7 5 8 6 1 3 2 
+1 2 6 4 3 7 5 9 8 
+5 8 3 9 1 2 7 6 4 
+9 3 1 8 6 5 4 2 7 
+2 4 5 7 9 1 6 8 3 
+6 7 8 2 4 3 9 1 5 
+8 1 9 3 7 4 2 5 6 
+3 5 4 6 2 9 8 7 1 
+7 6 2 1 5 8 3 4 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 9 0 0 0 7 0 
+6 2 7 8 5 1 3 4 9 
+0 9 8 0 7 3 0 5 0 
+0 0 9 5 6 8 4 2 7 
+7 8 6 0 0 2 0 1 0 
+0 5 0 0 0 7 0 8 0 
+0 0 1 7 0 0 0 0 0 
+9 7 0 0 8 5 1 0 2 
+0 0 0 0 0 0 7 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 1 1 0 0 0
+1 1 1 -1 1 1 1 1 1
+0 0 0 1 1 1 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0
+0 0 0 1 0 0 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 4 3 9 2 6 8 7 1 
+6 2 7 8 5 1 3 4 9 
+1 9 8 4 7 3 2 5 6 
+3 1 9 5 6 8 4 2 7 
+7 8 6 3 4 2 9 1 5 
+4 5 2 1 9 7 6 8 3 
+2 6 1 7 3 4 5 9 8 
+9 7 4 6 8 5 1 3 2 
+8 3 5 2 1 9 7 6 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 0 5 4 2 0 7 6 3 
+0 6 0 3 7 0 0 1 5 
+3 0 0 0 0 1 0 2 8 
+0 0 1 0 0 4 6 7 0 
+0 4 9 0 0 7 8 3 1 
+0 0 0 0 1 0 5 4 0 
+4 0 6 0 0 0 1 5 7 
+0 0 0 1 0 0 2 8 0 
+0 1 0 7 0 0 3 9 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 8 5 4 2 9 7 6 3 
+9 6 2 3 7 8 4 1 5 
+3 7 4 5 6 1 9 2 8 
+5 3 1 9 8 4 6 7 2 
+6 4 9 2 5 7 8 3 1 
+8 2 7 6 1 3 5 4 9 
+4 9 6 8 3 2 1 5 7 
+7 5 3 1 9 6 2 8 4 
+2 1 8 7 4 5 3 9 6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -830,9 +998,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:E3"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1133,9 +1301,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F5A96-CD68-4F38-8D35-D4A4BA19D7A6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1176,45 +1344,45 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8">
         <v>6</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1222,68 +1390,68 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
         <v>8</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="127.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF65391-BBC9-462D-B174-515D6BF501DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C97F549-F9EB-48D1-9B12-B3B82DB5DC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -341,30 +341,6 @@
 0 0 0 0 5 0 6 0 0 
 0 0 0 7 0 6 8 0 5 
 0 0 0 9 0 0 0 0 4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 8 4 0 0 0 7 0 0 
-0 0 0 0 0 3 0 9 0 
-0 0 6 7 0 0 0 0 0 
-0 0 0 0 0 0 0 6 0 
-0 0 0 4 9 0 0 0 0 
-0 2 8 0 1 0 3 0 0 
-6 0 0 0 4 0 0 0 1 
-0 0 0 2 0 5 0 0 9 
-0 4 0 0 0 0 8 0 0 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0 0 0 1 1 1 0 0 0
-0 0 0 1 1 1 0 0 0
-1 1 1 1 1 -1 1 1 1
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -996,11 +972,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D1F641-C532-4BFF-B954-B26B3CCFBE8B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1041,19 +1017,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
@@ -1064,67 +1040,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1301,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F5A96-CD68-4F38-8D35-D4A4BA19D7A6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1344,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8">
         <v>6</v>
@@ -1359,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1367,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="8">
         <v>5</v>
@@ -1382,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1390,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -1405,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="127.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -1413,10 +1343,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -1428,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1436,10 +1366,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
@@ -1451,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C97F549-F9EB-48D1-9B12-B3B82DB5DC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12F7D46-8768-4362-8348-DFD327A82F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
@@ -974,9 +974,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1231,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F5A96-CD68-4F38-8D35-D4A4BA19D7A6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12F7D46-8768-4362-8348-DFD327A82F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBBE2C-B7FC-4131-9755-A4D16F24DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
     <sheet name="中級" sheetId="3" r:id="rId2"/>
     <sheet name="上級" sheetId="4" r:id="rId3"/>
+    <sheet name="遊び方" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -509,6 +510,42 @@
 4 9 6 8 3 2 1 5 7 
 7 5 3 1 9 6 2 8 4 
 2 1 8 7 4 5 3 9 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 8 4 0 0 0 7 0 0 
+0 0 0 0 0 3 0 9 0 
+0 0 6 7 0 0 0 1 0 
+0 0 0 0 0 0 0 6 0 
+0 0 0 4 9 2 0 0 0 
+0 2 8 0 1 0 3 0 0 
+6 0 0 0 4 0 0 0 1 
+0 0 0 2 0 5 0 0 9 
+0 4 0 0 0 0 8 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 0 0 1 1 1 0 0 0
+0 0 0 1 1 1 0 0 0
+1 1 1 1 1 -1 1 1 1
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0
+0 0 0 0 0 1 0 0 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 8 4 1 6 9 7 5 3 
+1 5 7 8 2 3 4 9 6 
+3 9 6 7 5 4 2 1 8 
+4 1 5 3 8 7 9 6 2 
+7 6 3 4 9 2 1 8 5 
+9 2 8 5 1 6 3 7 4 
+6 7 2 9 4 8 5 3 1 
+8 3 1 2 7 5 6 4 9 
+5 4 9 6 3 1 8 2 7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -974,7 +1011,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1231,9 +1268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F5A96-CD68-4F38-8D35-D4A4BA19D7A6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1388,4 +1425,98 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7866D5CC-3F6A-4610-B552-DEC3D0F793FC}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="4"/>
+    <col min="7" max="7" width="16.796875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/DB.xlsx
+++ b/assets/DB.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\zer0\flutter\project\anumber\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBBE2C-B7FC-4131-9755-A4D16F24DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12F7D46-8768-4362-8348-DFD327A82F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{7110B28C-19B4-45A0-8065-CD0DDAD77C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="初級" sheetId="1" r:id="rId1"/>
     <sheet name="中級" sheetId="3" r:id="rId2"/>
     <sheet name="上級" sheetId="4" r:id="rId3"/>
-    <sheet name="遊び方" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -510,42 +509,6 @@
 4 9 6 8 3 2 1 5 7 
 7 5 3 1 9 6 2 8 4 
 2 1 8 7 4 5 3 9 6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2 8 4 0 0 0 7 0 0 
-0 0 0 0 0 3 0 9 0 
-0 0 6 7 0 0 0 1 0 
-0 0 0 0 0 0 0 6 0 
-0 0 0 4 9 2 0 0 0 
-0 2 8 0 1 0 3 0 0 
-6 0 0 0 4 0 0 0 1 
-0 0 0 2 0 5 0 0 9 
-0 4 0 0 0 0 8 0 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0 0 0 1 1 1 0 0 0
-0 0 0 1 1 1 0 0 0
-1 1 1 1 1 -1 1 1 1
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0
-0 0 0 0 0 1 0 0 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2 8 4 1 6 9 7 5 3 
-1 5 7 8 2 3 4 9 6 
-3 9 6 7 5 4 2 1 8 
-4 1 5 3 8 7 9 6 2 
-7 6 3 4 9 2 1 8 5 
-9 2 8 5 1 6 3 7 4 
-6 7 2 9 4 8 5 3 1 
-8 3 1 2 7 5 6 4 9 
-5 4 9 6 3 1 8 2 7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1011,7 +974,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1268,9 +1231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F5A96-CD68-4F38-8D35-D4A4BA19D7A6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1425,98 +1388,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7866D5CC-3F6A-4610-B552-DEC3D0F793FC}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="4"/>
-    <col min="7" max="7" width="16.796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="8">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="118.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>